--- a/orders.xlsx
+++ b/orders.xlsx
@@ -29,10 +29,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>butter</t>
+    <t>milk</t>
   </si>
   <si>
-    <t>curd</t>
+    <t>butter</t>
   </si>
 </sst>
 </file>
@@ -102,36 +102,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>200.0</v>
+        <v>80.0</v>
       </c>
       <c r="D2" t="n">
         <v>2.0</v>
       </c>
       <c r="E2" t="n">
-        <v>400.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>80.0</v>
+        <v>250.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" t="n">
-        <v>80.0</v>
+        <v>500.0</v>
       </c>
     </row>
   </sheetData>
